--- a/ExcelManagement/ExcelDocuments/Issue Status list.xlsx
+++ b/ExcelManagement/ExcelDocuments/Issue Status list.xlsx
@@ -163,109 +163,112 @@
     <x:t>Stein-Industries</x:t>
   </x:si>
   <x:si>
+    <x:t>Bug2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BSPLMAX-2507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdasdin ECO Template is not copied over in the vault and can't be opened in new ECOs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joachim Thygesen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60c7570e2bd2140069c01d5f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Internal approval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CR Sprint Week 3-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD-915</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setup form - for CAD configurator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bjarne Mortensen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>557058:0534088c-1ed7-4fd0-9fb8-c6c81d5e944f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jesper B. Thomsen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5bed6d00db82d4090ba69168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Estimate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PDM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD-914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Divide responsiblility of core areas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Feature</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD-913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentation CAD configuration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jakub Szkandera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5d6e060b8f0aa30dba0b00f6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BSPLMAX-2514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>German translation of Bluestar Configurator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamid Keshmiri Neghab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>629f0156e318a50069375bd6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Johannes Bach Larsen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62306f53867a4e0070959c67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BSCFG-279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CFG - Expand / Collapse all groups</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stakeholder Sign-off</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PD23  Week 1-3</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bug</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BSPLMAX-2507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sdasdin ECO Template is not copied over in the vault and can't be opened in new ECOs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joachim Thygesen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60c7570e2bd2140069c01d5f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>High</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Internal approval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CR Sprint Week 3-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD-915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setup form - for CAD configurator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bjarne Mortensen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>557058:0534088c-1ed7-4fd0-9fb8-c6c81d5e944f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jesper B. Thomsen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5bed6d00db82d4090ba69168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Estimate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PDM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD-914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Divide responsiblility of core areas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Feature</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD-913</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Documentation CAD configuration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jakub Szkandera</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5d6e060b8f0aa30dba0b00f6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BSPLMAX-2514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>German translation of Bluestar Configurator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamid Keshmiri Neghab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>629f0156e318a50069375bd6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Johannes Bach Larsen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62306f53867a4e0070959c67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BSCFG-279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CFG - Expand / Collapse all groups</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stakeholder Sign-off</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PD23  Week 1-3</x:t>
   </x:si>
   <x:si>
     <x:t>BSPLMAX-2500</x:t>
@@ -1427,8 +1430,8 @@
       <x:c r="M3" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="N3" s="1"/>
-      <x:c r="O3" s="1"/>
+      <x:c r="N3" s="1" t="s"/>
+      <x:c r="O3" s="1" t="s"/>
       <x:c r="P3" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -1664,22 +1667,22 @@
     </x:row>
     <x:row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C11" s="0">
         <x:v>23628</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
         <x:v>37</x:v>
@@ -1691,7 +1694,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M11" s="1">
         <x:v>44949.63125</x:v>
@@ -1701,7 +1704,7 @@
       </x:c>
       <x:c r="O11" s="1"/>
       <x:c r="P11" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Q11" s="0">
         <x:v>23400</x:v>
@@ -1712,28 +1715,28 @@
     </x:row>
     <x:row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C12" s="0">
         <x:v>23664</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
         <x:v>30</x:v>
@@ -1749,27 +1752,27 @@
       </x:c>
       <x:c r="O12" s="1"/>
       <x:c r="P12" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="Q12" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R12" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C13" s="0">
         <x:v>23657</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>57</x:v>
@@ -1778,13 +1781,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
         <x:v>50</x:v>
@@ -1797,15 +1800,15 @@
       </x:c>
       <x:c r="O13" s="1"/>
       <x:c r="P13" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C14" s="0">
         <x:v>23663</x:v>
@@ -1814,7 +1817,7 @@
         <x:f>B13</x:f>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>46</x:v>
@@ -1842,33 +1845,33 @@
       </x:c>
       <x:c r="O14" s="1"/>
       <x:c r="P14" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C15" s="0">
         <x:v>23694</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
         <x:v>30</x:v>
@@ -1884,33 +1887,33 @@
       </x:c>
       <x:c r="O15" s="1"/>
       <x:c r="P15" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A16" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C16" s="0">
         <x:v>23662</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
         <x:v>30</x:v>
@@ -1926,21 +1929,21 @@
       </x:c>
       <x:c r="O16" s="1"/>
       <x:c r="P16" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C17" s="0">
         <x:v>23661</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>26</x:v>
@@ -1968,7 +1971,7 @@
       </x:c>
       <x:c r="O17" s="1"/>
       <x:c r="P17" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="Q17" s="0">
         <x:v>9000</x:v>
@@ -1979,34 +1982,34 @@
     </x:row>
     <x:row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A18" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C18" s="0">
         <x:v>23647</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M18" s="1">
         <x:v>44950.6444444444</x:v>
@@ -2016,42 +2019,42 @@
       </x:c>
       <x:c r="O18" s="1"/>
       <x:c r="P18" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="Q18" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R18" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A19" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C19" s="0">
         <x:v>23645</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
         <x:v>67</x:v>
@@ -2064,7 +2067,7 @@
       </x:c>
       <x:c r="O19" s="1"/>
       <x:c r="P19" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="Q19" s="0">
         <x:v>14400</x:v>
@@ -2075,16 +2078,16 @@
     </x:row>
     <x:row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A20" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C20" s="0">
         <x:v>23698</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>46</x:v>
@@ -2112,39 +2115,39 @@
       </x:c>
       <x:c r="O20" s="1"/>
       <x:c r="P20" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="Q20" s="0">
         <x:v>1800</x:v>
       </x:c>
       <x:c r="R20" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="S20" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="T20" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="U20" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="V20" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A21" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C21" s="0">
         <x:v>23700</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>46</x:v>
@@ -2162,7 +2165,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M21" s="1">
         <x:v>44953.5590277778</x:v>
@@ -2174,7 +2177,7 @@
         <x:v>44967</x:v>
       </x:c>
       <x:c r="P21" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="Q21" s="0">
         <x:v>14400</x:v>
@@ -2182,16 +2185,16 @@
     </x:row>
     <x:row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A22" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C22" s="0">
         <x:v>23684</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>26</x:v>
@@ -2219,7 +2222,7 @@
       </x:c>
       <x:c r="O22" s="1"/>
       <x:c r="P22" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -2227,31 +2230,31 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C23" s="0">
         <x:v>23619</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K23" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M23" s="1">
         <x:v>44949.4194444444</x:v>
@@ -2266,16 +2269,16 @@
     </x:row>
     <x:row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A24" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C24" s="0">
         <x:v>23672</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>26</x:v>
@@ -2308,34 +2311,34 @@
     </x:row>
     <x:row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A25" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C25" s="0">
         <x:v>23682</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M25" s="1">
         <x:v>44952.5395833333</x:v>
@@ -2345,7 +2348,7 @@
       </x:c>
       <x:c r="O25" s="1"/>
       <x:c r="P25" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="Q25" s="0">
         <x:v>14400</x:v>
@@ -2356,16 +2359,16 @@
     </x:row>
     <x:row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A26" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C26" s="0">
         <x:v>23665</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
         <x:v>26</x:v>
@@ -2374,16 +2377,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K26" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M26" s="1">
         <x:v>44951.5833333333</x:v>
@@ -2393,7 +2396,7 @@
       </x:c>
       <x:c r="O26" s="1"/>
       <x:c r="P26" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="Q26" s="0">
         <x:v>7200</x:v>
@@ -2401,22 +2404,22 @@
     </x:row>
     <x:row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A27" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C27" s="0">
         <x:v>23703</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
         <x:v>46</x:v>
@@ -2438,39 +2441,39 @@
       </x:c>
       <x:c r="O27" s="1"/>
       <x:c r="P27" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q27" s="0">
         <x:v>21600</x:v>
       </x:c>
       <x:c r="R27" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A28" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C28" s="0">
         <x:v>23697</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
         <x:v>39</x:v>
@@ -2486,39 +2489,39 @@
       </x:c>
       <x:c r="O28" s="1"/>
       <x:c r="P28" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q28" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R28" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A29" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C29" s="0">
         <x:v>23696</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
         <x:v>39</x:v>
@@ -2534,42 +2537,42 @@
       </x:c>
       <x:c r="O29" s="1"/>
       <x:c r="P29" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q29" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R29" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A30" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C30" s="0">
         <x:v>23695</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K30" s="0" t="s">
         <x:v>67</x:v>
@@ -2582,39 +2585,39 @@
       </x:c>
       <x:c r="O30" s="1"/>
       <x:c r="P30" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q30" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R30" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A31" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C31" s="0">
         <x:v>23656</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
         <x:v>30</x:v>
@@ -2630,45 +2633,45 @@
       </x:c>
       <x:c r="O31" s="1"/>
       <x:c r="P31" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q31" s="0">
         <x:v>18000</x:v>
       </x:c>
       <x:c r="R31" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A32" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C32" s="0">
         <x:v>23653</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K32" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M32" s="1">
         <x:v>44950.66875</x:v>
@@ -2678,45 +2681,45 @@
       </x:c>
       <x:c r="O32" s="1"/>
       <x:c r="P32" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q32" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R32" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A33" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C33" s="0">
         <x:v>23652</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K33" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M33" s="1">
         <x:v>44950.6652777778</x:v>
@@ -2726,42 +2729,42 @@
       </x:c>
       <x:c r="O33" s="1"/>
       <x:c r="P33" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q33" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R33" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C34" s="0">
         <x:v>23651</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K34" s="0" t="s">
         <x:v>67</x:v>
@@ -2774,39 +2777,39 @@
       </x:c>
       <x:c r="O34" s="1"/>
       <x:c r="P34" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q34" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R34" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A35" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C35" s="0">
         <x:v>23650</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I35" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
         <x:v>30</x:v>
@@ -2822,39 +2825,39 @@
       </x:c>
       <x:c r="O35" s="1"/>
       <x:c r="P35" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="R35" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A36" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C36" s="0">
         <x:v>23648</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K36" s="0" t="s">
         <x:v>67</x:v>
@@ -2867,13 +2870,13 @@
       </x:c>
       <x:c r="O36" s="1"/>
       <x:c r="P36" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q36" s="0">
         <x:v>18000</x:v>
       </x:c>
       <x:c r="R36" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -2881,13 +2884,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C37" s="0">
         <x:v>23646</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
         <x:v>57</x:v>
@@ -2915,24 +2918,24 @@
       </x:c>
       <x:c r="O37" s="1"/>
       <x:c r="P37" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="R37" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A38" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C38" s="0">
         <x:v>23642</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
         <x:v>46</x:v>
@@ -2960,45 +2963,45 @@
       </x:c>
       <x:c r="O38" s="1"/>
       <x:c r="P38" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q38" s="0">
         <x:v>21600</x:v>
       </x:c>
       <x:c r="R38" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A39" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C39" s="0">
         <x:v>23641</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K39" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M39" s="1">
         <x:v>44950.5451388889</x:v>
@@ -3008,27 +3011,27 @@
       </x:c>
       <x:c r="O39" s="1"/>
       <x:c r="P39" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q39" s="0">
         <x:v>72000</x:v>
       </x:c>
       <x:c r="R39" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A40" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C40" s="0">
         <x:v>23640</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>46</x:v>
@@ -3046,7 +3049,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K40" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M40" s="1">
         <x:v>44950.5395833333</x:v>
@@ -3056,27 +3059,27 @@
       </x:c>
       <x:c r="O40" s="1"/>
       <x:c r="P40" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q40" s="0">
         <x:v>28800</x:v>
       </x:c>
       <x:c r="R40" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A41" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C41" s="0">
         <x:v>23639</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
         <x:v>46</x:v>
@@ -3098,21 +3101,21 @@
       </x:c>
       <x:c r="O41" s="1"/>
       <x:c r="P41" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A42" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C42" s="0">
         <x:v>23638</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
         <x:v>46</x:v>
@@ -3130,7 +3133,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K42" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M42" s="1">
         <x:v>44950.5208333333</x:v>
@@ -3140,42 +3143,42 @@
       </x:c>
       <x:c r="O42" s="1"/>
       <x:c r="P42" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q42" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R42" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A43" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C43" s="0">
         <x:v>23621</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K43" s="0" t="s">
         <x:v>67</x:v>
@@ -3188,7 +3191,7 @@
       </x:c>
       <x:c r="O43" s="1"/>
       <x:c r="P43" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q43" s="0">
         <x:v>14400</x:v>
@@ -3197,39 +3200,39 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="S43" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A44" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C44" s="0">
         <x:v>23618</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="H44" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="K44" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M44" s="1">
         <x:v>44949.3888888889</x:v>
@@ -3239,7 +3242,7 @@
       </x:c>
       <x:c r="O44" s="1"/>
       <x:c r="P44" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q44" s="0">
         <x:v>10800</x:v>
@@ -3248,7 +3251,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="S44" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3256,28 +3259,28 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C45" s="0">
         <x:v>23637</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K45" s="0" t="s">
         <x:v>67</x:v>
@@ -3290,7 +3293,7 @@
       </x:c>
       <x:c r="O45" s="1"/>
       <x:c r="P45" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="Q45" s="0">
         <x:v>27000</x:v>
@@ -3298,34 +3301,34 @@
     </x:row>
     <x:row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A46" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C46" s="0">
         <x:v>23644</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="K46" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M46" s="1">
         <x:v>44950.6326388889</x:v>
@@ -3335,7 +3338,7 @@
       </x:c>
       <x:c r="O46" s="1"/>
       <x:c r="P46" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="Q46" s="0">
         <x:v>36000</x:v>
@@ -3343,34 +3346,34 @@
     </x:row>
     <x:row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A47" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C47" s="0">
         <x:v>23633</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J47" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K47" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M47" s="1">
         <x:v>44949.9173611111</x:v>
@@ -3380,7 +3383,7 @@
       </x:c>
       <x:c r="O47" s="1"/>
       <x:c r="P47" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="Q47" s="0">
         <x:v>25200</x:v>
@@ -3388,34 +3391,34 @@
     </x:row>
     <x:row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A48" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C48" s="0">
         <x:v>23631</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K48" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M48" s="1">
         <x:v>44949.8416666667</x:v>
@@ -3425,7 +3428,7 @@
       </x:c>
       <x:c r="O48" s="1"/>
       <x:c r="P48" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="Q48" s="0">
         <x:v>25200</x:v>
@@ -3433,16 +3436,16 @@
     </x:row>
     <x:row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A49" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C49" s="0">
         <x:v>23689</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
         <x:v>26</x:v>
@@ -3451,10 +3454,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
         <x:v>39</x:v>
@@ -3470,21 +3473,21 @@
       </x:c>
       <x:c r="O49" s="1"/>
       <x:c r="P49" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A50" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C50" s="0">
         <x:v>23707</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
         <x:v>26</x:v>
@@ -3512,21 +3515,21 @@
       </x:c>
       <x:c r="O50" s="1"/>
       <x:c r="P50" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A51" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C51" s="0">
         <x:v>23677</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
         <x:v>26</x:v>
@@ -3541,10 +3544,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K51" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M51" s="1">
         <x:v>44952.4111111111</x:v>
@@ -3554,7 +3557,7 @@
       </x:c>
       <x:c r="O51" s="1"/>
       <x:c r="P51" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="Q51" s="0">
         <x:v>10800</x:v>
@@ -3565,16 +3568,16 @@
     </x:row>
     <x:row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A52" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C52" s="0">
         <x:v>23676</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
         <x:v>26</x:v>
@@ -3589,7 +3592,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K52" s="0" t="s">
         <x:v>40</x:v>
@@ -3602,7 +3605,7 @@
       </x:c>
       <x:c r="O52" s="1"/>
       <x:c r="P52" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="Q52" s="0">
         <x:v>16200</x:v>
@@ -3613,28 +3616,28 @@
     </x:row>
     <x:row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A53" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C53" s="0">
         <x:v>23624</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
         <x:v>30</x:v>
@@ -3650,33 +3653,33 @@
       </x:c>
       <x:c r="O53" s="1"/>
       <x:c r="P53" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A54" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C54" s="0">
         <x:v>23654</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
         <x:v>30</x:v>
@@ -3692,33 +3695,33 @@
       </x:c>
       <x:c r="O54" s="1"/>
       <x:c r="P54" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A55" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C55" s="0">
         <x:v>23701</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
         <x:v>39</x:v>
@@ -3736,7 +3739,7 @@
         <x:v>44967</x:v>
       </x:c>
       <x:c r="P55" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -3744,25 +3747,25 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C56" s="0">
         <x:v>23683</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
         <x:v>30</x:v>
@@ -3778,7 +3781,7 @@
       </x:c>
       <x:c r="O56" s="1"/>
       <x:c r="P56" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -3786,13 +3789,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C57" s="0">
         <x:v>23623</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
         <x:v>57</x:v>
@@ -3801,10 +3804,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
         <x:v>39</x:v>
@@ -3820,39 +3823,39 @@
       </x:c>
       <x:c r="O57" s="1"/>
       <x:c r="P57" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A58" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C58" s="0">
         <x:v>23622</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="K58" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M58" s="1">
         <x:v>44949.5381944444</x:v>
@@ -3862,27 +3865,27 @@
       </x:c>
       <x:c r="O58" s="1"/>
       <x:c r="P58" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="Q58" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R58" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A59" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C59" s="0">
         <x:v>23687</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
         <x:v>26</x:v>
@@ -3900,7 +3903,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K59" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M59" s="1">
         <x:v>44952.6104166667</x:v>
@@ -3910,13 +3913,13 @@
       </x:c>
       <x:c r="O59" s="1"/>
       <x:c r="P59" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="Q59" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R59" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -3924,13 +3927,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C60" s="0">
         <x:v>23685</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
         <x:v>26</x:v>
@@ -3948,7 +3951,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K60" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M60" s="1">
         <x:v>44952.5694444444</x:v>
@@ -3958,13 +3961,13 @@
       </x:c>
       <x:c r="O60" s="1"/>
       <x:c r="P60" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="Q60" s="0">
         <x:v>25200</x:v>
       </x:c>
       <x:c r="R60" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -3972,31 +3975,31 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C61" s="0">
         <x:v>23667</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K61" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M61" s="1">
         <x:v>44951.5972222222</x:v>
@@ -4006,13 +4009,13 @@
       </x:c>
       <x:c r="O61" s="1"/>
       <x:c r="P61" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="Q61" s="0">
         <x:v>18000</x:v>
       </x:c>
       <x:c r="R61" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4039,16 +4042,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4073,16 +4076,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4107,16 +4110,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4141,16 +4144,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4180,38 +4183,38 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C2" s="0">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D2" s="0">
-        <x:v>2000</x:v>
+        <x:v>2001</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C3" s="0">
         <x:v>40</x:v>
@@ -4222,15 +4225,15 @@
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4257,18 +4260,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>6</x:v>
@@ -4279,7 +4282,7 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4306,18 +4309,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>6</x:v>
@@ -4328,7 +4331,7 @@
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>6</x:v>
@@ -4359,30 +4362,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4407,30 +4410,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4455,16 +4458,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4489,16 +4492,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4523,16 +4526,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ExcelManagement/ExcelDocuments/Issue Status list.xlsx
+++ b/ExcelManagement/ExcelDocuments/Issue Status list.xlsx
@@ -158,6 +158,9 @@
   </x:si>
   <x:si>
     <x:t>25-01-2023 16:31:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdfsd</x:t>
   </x:si>
   <x:si>
     <x:t>Stein-Industries</x:t>
@@ -1391,23 +1394,25 @@
       <x:c r="N2" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="O2" s="1" t="s"/>
+      <x:c r="O2" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="P2" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D3" s="2">
         <x:f>D2+1</x:f>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>26</x:v>
@@ -1416,59 +1421,59 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M3" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N3" s="1" t="s"/>
       <x:c r="O3" s="1" t="s"/>
       <x:c r="P3" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="R3" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C4" s="0">
         <x:v>23681</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M4" s="1">
         <x:v>44952.45625</x:v>
@@ -1478,39 +1483,39 @@
       </x:c>
       <x:c r="O4" s="1"/>
       <x:c r="P4" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M5" s="1"/>
       <x:c r="N5" s="1">
@@ -1520,39 +1525,39 @@
         <x:v>44952.4486111111</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C6" s="0">
         <x:v>23679</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M6" s="1">
         <x:v>44952.4409722222</x:v>
@@ -1562,7 +1567,7 @@
       </x:c>
       <x:c r="O6" s="1"/>
       <x:c r="P6" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1570,31 +1575,31 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C7" s="0">
         <x:v>23699</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K7" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M7" s="1">
         <x:v>44953.48125</x:v>
@@ -1604,7 +1609,7 @@
       </x:c>
       <x:c r="O7" s="1"/>
       <x:c r="P7" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1622,31 +1627,31 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C10" s="0">
         <x:v>23615</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M10" s="1">
         <x:v>44949.3138888889</x:v>
@@ -1656,45 +1661,45 @@
       </x:c>
       <x:c r="O10" s="1"/>
       <x:c r="P10" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="Q10" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R10" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C11" s="0">
         <x:v>23628</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M11" s="1">
         <x:v>44949.63125</x:v>
@@ -1704,45 +1709,45 @@
       </x:c>
       <x:c r="O11" s="1"/>
       <x:c r="P11" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q11" s="0">
         <x:v>23400</x:v>
       </x:c>
       <x:c r="R11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C12" s="0">
         <x:v>23664</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K12" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M12" s="1">
         <x:v>44951.58125</x:v>
@@ -1752,45 +1757,45 @@
       </x:c>
       <x:c r="O12" s="1"/>
       <x:c r="P12" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="Q12" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R12" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C13" s="0">
         <x:v>23657</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M13" s="1">
         <x:v>44951.3958333333</x:v>
@@ -1800,15 +1805,15 @@
       </x:c>
       <x:c r="O13" s="1"/>
       <x:c r="P13" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C14" s="0">
         <x:v>23663</x:v>
@@ -1817,25 +1822,25 @@
         <x:f>B13</x:f>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K14" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M14" s="1">
         <x:v>44951.56875</x:v>
@@ -1845,33 +1850,33 @@
       </x:c>
       <x:c r="O14" s="1"/>
       <x:c r="P14" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C15" s="0">
         <x:v>23694</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
         <x:v>30</x:v>
@@ -1887,39 +1892,39 @@
       </x:c>
       <x:c r="O15" s="1"/>
       <x:c r="P15" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A16" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C16" s="0">
         <x:v>23662</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K16" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M16" s="1">
         <x:v>44951.5611111111</x:v>
@@ -1929,21 +1934,21 @@
       </x:c>
       <x:c r="O16" s="1"/>
       <x:c r="P16" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A17" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C17" s="0">
         <x:v>23661</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>26</x:v>
@@ -1961,7 +1966,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K17" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M17" s="1">
         <x:v>44951.5506944444</x:v>
@@ -1971,45 +1976,45 @@
       </x:c>
       <x:c r="O17" s="1"/>
       <x:c r="P17" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="Q17" s="0">
         <x:v>9000</x:v>
       </x:c>
       <x:c r="R17" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A18" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C18" s="0">
         <x:v>23647</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M18" s="1">
         <x:v>44950.6444444444</x:v>
@@ -2019,45 +2024,45 @@
       </x:c>
       <x:c r="O18" s="1"/>
       <x:c r="P18" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="Q18" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R18" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A19" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C19" s="0">
         <x:v>23645</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M19" s="1">
         <x:v>44950.6333333333</x:v>
@@ -2067,45 +2072,45 @@
       </x:c>
       <x:c r="O19" s="1"/>
       <x:c r="P19" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="Q19" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R19" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A20" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C20" s="0">
         <x:v>23698</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K20" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M20" s="1">
         <x:v>44953.3951388889</x:v>
@@ -2115,57 +2120,57 @@
       </x:c>
       <x:c r="O20" s="1"/>
       <x:c r="P20" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="Q20" s="0">
         <x:v>1800</x:v>
       </x:c>
       <x:c r="R20" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="S20" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="T20" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="U20" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="V20" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A21" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C21" s="0">
         <x:v>23700</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="M21" s="1">
         <x:v>44953.5590277778</x:v>
@@ -2177,7 +2182,7 @@
         <x:v>44967</x:v>
       </x:c>
       <x:c r="P21" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="Q21" s="0">
         <x:v>14400</x:v>
@@ -2185,16 +2190,16 @@
     </x:row>
     <x:row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A22" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C22" s="0">
         <x:v>23684</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>26</x:v>
@@ -2212,7 +2217,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K22" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M22" s="1">
         <x:v>44952.5659722222</x:v>
@@ -2222,39 +2227,39 @@
       </x:c>
       <x:c r="O22" s="1"/>
       <x:c r="P22" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A23" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C23" s="0">
         <x:v>23619</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K23" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="M23" s="1">
         <x:v>44949.4194444444</x:v>
@@ -2264,21 +2269,21 @@
       </x:c>
       <x:c r="O23" s="1"/>
       <x:c r="P23" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A24" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C24" s="0">
         <x:v>23672</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>26</x:v>
@@ -2306,39 +2311,39 @@
       </x:c>
       <x:c r="O24" s="1"/>
       <x:c r="P24" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A25" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C25" s="0">
         <x:v>23682</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="M25" s="1">
         <x:v>44952.5395833333</x:v>
@@ -2348,27 +2353,27 @@
       </x:c>
       <x:c r="O25" s="1"/>
       <x:c r="P25" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="Q25" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R25" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A26" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C26" s="0">
         <x:v>23665</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
         <x:v>26</x:v>
@@ -2377,16 +2382,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K26" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="M26" s="1">
         <x:v>44951.5833333333</x:v>
@@ -2396,7 +2401,7 @@
       </x:c>
       <x:c r="O26" s="1"/>
       <x:c r="P26" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="Q26" s="0">
         <x:v>7200</x:v>
@@ -2404,34 +2409,34 @@
     </x:row>
     <x:row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A27" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C27" s="0">
         <x:v>23703</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K27" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M27" s="1">
         <x:v>44953.6263888889</x:v>
@@ -2441,45 +2446,45 @@
       </x:c>
       <x:c r="O27" s="1"/>
       <x:c r="P27" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q27" s="0">
         <x:v>21600</x:v>
       </x:c>
       <x:c r="R27" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A28" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C28" s="0">
         <x:v>23697</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K28" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M28" s="1">
         <x:v>44953.3881944444</x:v>
@@ -2489,45 +2494,45 @@
       </x:c>
       <x:c r="O28" s="1"/>
       <x:c r="P28" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q28" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R28" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A29" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C29" s="0">
         <x:v>23696</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K29" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M29" s="1">
         <x:v>44953.3861111111</x:v>
@@ -2537,45 +2542,45 @@
       </x:c>
       <x:c r="O29" s="1"/>
       <x:c r="P29" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q29" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R29" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A30" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C30" s="0">
         <x:v>23695</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K30" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M30" s="1">
         <x:v>44953.3840277778</x:v>
@@ -2585,45 +2590,45 @@
       </x:c>
       <x:c r="O30" s="1"/>
       <x:c r="P30" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q30" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R30" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A31" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C31" s="0">
         <x:v>23656</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K31" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M31" s="1">
         <x:v>44951.3791666667</x:v>
@@ -2633,45 +2638,45 @@
       </x:c>
       <x:c r="O31" s="1"/>
       <x:c r="P31" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q31" s="0">
         <x:v>18000</x:v>
       </x:c>
       <x:c r="R31" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A32" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C32" s="0">
         <x:v>23653</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K32" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M32" s="1">
         <x:v>44950.66875</x:v>
@@ -2681,45 +2686,45 @@
       </x:c>
       <x:c r="O32" s="1"/>
       <x:c r="P32" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q32" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R32" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A33" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C33" s="0">
         <x:v>23652</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K33" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M33" s="1">
         <x:v>44950.6652777778</x:v>
@@ -2729,45 +2734,45 @@
       </x:c>
       <x:c r="O33" s="1"/>
       <x:c r="P33" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q33" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R33" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C34" s="0">
         <x:v>23651</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K34" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M34" s="1">
         <x:v>44950.6638888889</x:v>
@@ -2777,39 +2782,39 @@
       </x:c>
       <x:c r="O34" s="1"/>
       <x:c r="P34" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q34" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R34" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A35" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C35" s="0">
         <x:v>23650</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I35" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
         <x:v>30</x:v>
@@ -2825,42 +2830,42 @@
       </x:c>
       <x:c r="O35" s="1"/>
       <x:c r="P35" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="R35" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A36" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C36" s="0">
         <x:v>23648</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K36" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M36" s="1">
         <x:v>44950.6520833333</x:v>
@@ -2870,39 +2875,39 @@
       </x:c>
       <x:c r="O36" s="1"/>
       <x:c r="P36" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q36" s="0">
         <x:v>18000</x:v>
       </x:c>
       <x:c r="R36" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A37" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C37" s="0">
         <x:v>23646</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="I37" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
         <x:v>30</x:v>
@@ -2918,36 +2923,36 @@
       </x:c>
       <x:c r="O37" s="1"/>
       <x:c r="P37" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="R37" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A38" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C38" s="0">
         <x:v>23642</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="I38" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J38" s="0" t="s">
         <x:v>30</x:v>
@@ -2963,45 +2968,45 @@
       </x:c>
       <x:c r="O38" s="1"/>
       <x:c r="P38" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q38" s="0">
         <x:v>21600</x:v>
       </x:c>
       <x:c r="R38" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A39" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C39" s="0">
         <x:v>23641</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K39" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="M39" s="1">
         <x:v>44950.5451388889</x:v>
@@ -3011,45 +3016,45 @@
       </x:c>
       <x:c r="O39" s="1"/>
       <x:c r="P39" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q39" s="0">
         <x:v>72000</x:v>
       </x:c>
       <x:c r="R39" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A40" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C40" s="0">
         <x:v>23640</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="I40" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K40" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M40" s="1">
         <x:v>44950.5395833333</x:v>
@@ -3059,36 +3064,36 @@
       </x:c>
       <x:c r="O40" s="1"/>
       <x:c r="P40" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q40" s="0">
         <x:v>28800</x:v>
       </x:c>
       <x:c r="R40" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A41" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C41" s="0">
         <x:v>23639</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K41" s="0" t="s">
         <x:v>31</x:v>
@@ -3101,39 +3106,39 @@
       </x:c>
       <x:c r="O41" s="1"/>
       <x:c r="P41" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A42" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C42" s="0">
         <x:v>23638</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K42" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M42" s="1">
         <x:v>44950.5208333333</x:v>
@@ -3143,45 +3148,45 @@
       </x:c>
       <x:c r="O42" s="1"/>
       <x:c r="P42" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q42" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R42" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A43" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C43" s="0">
         <x:v>23621</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K43" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M43" s="1">
         <x:v>44949.4993055556</x:v>
@@ -3191,48 +3196,48 @@
       </x:c>
       <x:c r="O43" s="1"/>
       <x:c r="P43" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q43" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R43" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="S43" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A44" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C44" s="0">
         <x:v>23618</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H44" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K44" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M44" s="1">
         <x:v>44949.3888888889</x:v>
@@ -3242,48 +3247,48 @@
       </x:c>
       <x:c r="O44" s="1"/>
       <x:c r="P44" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="Q44" s="0">
         <x:v>10800</x:v>
       </x:c>
       <x:c r="R44" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="S44" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A45" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C45" s="0">
         <x:v>23637</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K45" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M45" s="1">
         <x:v>44950.4888888889</x:v>
@@ -3293,7 +3298,7 @@
       </x:c>
       <x:c r="O45" s="1"/>
       <x:c r="P45" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="Q45" s="0">
         <x:v>27000</x:v>
@@ -3301,34 +3306,34 @@
     </x:row>
     <x:row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A46" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C46" s="0">
         <x:v>23644</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K46" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="M46" s="1">
         <x:v>44950.6326388889</x:v>
@@ -3338,7 +3343,7 @@
       </x:c>
       <x:c r="O46" s="1"/>
       <x:c r="P46" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="Q46" s="0">
         <x:v>36000</x:v>
@@ -3346,34 +3351,34 @@
     </x:row>
     <x:row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A47" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C47" s="0">
         <x:v>23633</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J47" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K47" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M47" s="1">
         <x:v>44949.9173611111</x:v>
@@ -3383,7 +3388,7 @@
       </x:c>
       <x:c r="O47" s="1"/>
       <x:c r="P47" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="Q47" s="0">
         <x:v>25200</x:v>
@@ -3391,34 +3396,34 @@
     </x:row>
     <x:row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A48" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C48" s="0">
         <x:v>23631</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K48" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M48" s="1">
         <x:v>44949.8416666667</x:v>
@@ -3428,7 +3433,7 @@
       </x:c>
       <x:c r="O48" s="1"/>
       <x:c r="P48" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="Q48" s="0">
         <x:v>25200</x:v>
@@ -3436,16 +3441,16 @@
     </x:row>
     <x:row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A49" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C49" s="0">
         <x:v>23689</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
         <x:v>26</x:v>
@@ -3454,16 +3459,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K49" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M49" s="1">
         <x:v>44952.6361111111</x:v>
@@ -3473,21 +3478,21 @@
       </x:c>
       <x:c r="O49" s="1"/>
       <x:c r="P49" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A50" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C50" s="0">
         <x:v>23707</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
         <x:v>26</x:v>
@@ -3505,7 +3510,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K50" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M50" s="1">
         <x:v>44956.3902777778</x:v>
@@ -3515,21 +3520,21 @@
       </x:c>
       <x:c r="O50" s="1"/>
       <x:c r="P50" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A51" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C51" s="0">
         <x:v>23677</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
         <x:v>26</x:v>
@@ -3544,10 +3549,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K51" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="M51" s="1">
         <x:v>44952.4111111111</x:v>
@@ -3557,27 +3562,27 @@
       </x:c>
       <x:c r="O51" s="1"/>
       <x:c r="P51" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="Q51" s="0">
         <x:v>10800</x:v>
       </x:c>
       <x:c r="R51" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A52" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C52" s="0">
         <x:v>23676</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
         <x:v>26</x:v>
@@ -3592,10 +3597,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K52" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M52" s="1">
         <x:v>44952.3916666667</x:v>
@@ -3605,39 +3610,39 @@
       </x:c>
       <x:c r="O52" s="1"/>
       <x:c r="P52" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="Q52" s="0">
         <x:v>16200</x:v>
       </x:c>
       <x:c r="R52" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A53" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C53" s="0">
         <x:v>23624</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
         <x:v>30</x:v>
@@ -3653,33 +3658,33 @@
       </x:c>
       <x:c r="O53" s="1"/>
       <x:c r="P53" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A54" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C54" s="0">
         <x:v>23654</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
         <x:v>30</x:v>
@@ -3695,39 +3700,39 @@
       </x:c>
       <x:c r="O54" s="1"/>
       <x:c r="P54" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A55" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C55" s="0">
         <x:v>23701</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K55" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M55" s="1">
         <x:v>44953.5694444444</x:v>
@@ -3739,33 +3744,33 @@
         <x:v>44967</x:v>
       </x:c>
       <x:c r="P55" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A56" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C56" s="0">
         <x:v>23683</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
         <x:v>30</x:v>
@@ -3781,7 +3786,7 @@
       </x:c>
       <x:c r="O56" s="1"/>
       <x:c r="P56" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -3789,31 +3794,31 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C57" s="0">
         <x:v>23623</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K57" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M57" s="1">
         <x:v>44949.55625</x:v>
@@ -3823,39 +3828,39 @@
       </x:c>
       <x:c r="O57" s="1"/>
       <x:c r="P57" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A58" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C58" s="0">
         <x:v>23622</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K58" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M58" s="1">
         <x:v>44949.5381944444</x:v>
@@ -3865,27 +3870,27 @@
       </x:c>
       <x:c r="O58" s="1"/>
       <x:c r="P58" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="Q58" s="0">
         <x:v>14400</x:v>
       </x:c>
       <x:c r="R58" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A59" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C59" s="0">
         <x:v>23687</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
         <x:v>26</x:v>
@@ -3903,7 +3908,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K59" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M59" s="1">
         <x:v>44952.6104166667</x:v>
@@ -3913,27 +3918,27 @@
       </x:c>
       <x:c r="O59" s="1"/>
       <x:c r="P59" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="Q59" s="0">
         <x:v>7200</x:v>
       </x:c>
       <x:c r="R59" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A60" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C60" s="0">
         <x:v>23685</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
         <x:v>26</x:v>
@@ -3951,7 +3956,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K60" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M60" s="1">
         <x:v>44952.5694444444</x:v>
@@ -3961,45 +3966,45 @@
       </x:c>
       <x:c r="O60" s="1"/>
       <x:c r="P60" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="Q60" s="0">
         <x:v>25200</x:v>
       </x:c>
       <x:c r="R60" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <x:c r="A61" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C61" s="0">
         <x:v>23667</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K61" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M61" s="1">
         <x:v>44951.5972222222</x:v>
@@ -4009,13 +4014,13 @@
       </x:c>
       <x:c r="O61" s="1"/>
       <x:c r="P61" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="Q61" s="0">
         <x:v>18000</x:v>
       </x:c>
       <x:c r="R61" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4042,16 +4047,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4076,16 +4081,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4110,16 +4115,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4144,16 +4149,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4183,24 +4188,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C2" s="0">
         <x:v>50</x:v>
@@ -4211,10 +4216,10 @@
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C3" s="0">
         <x:v>40</x:v>
@@ -4225,15 +4230,15 @@
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4260,18 +4265,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>6</x:v>
@@ -4282,7 +4287,7 @@
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4309,18 +4314,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>6</x:v>
@@ -4331,7 +4336,7 @@
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>6</x:v>
@@ -4362,30 +4367,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4410,30 +4415,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4458,16 +4463,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4492,16 +4497,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4526,16 +4531,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
